--- a/варианты/простоегэ/5/22.xlsx
+++ b/варианты/простоегэ/5/22.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -44,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,7 +143,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -183,7 +178,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -360,7 +355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -371,13 +366,13 @@
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
     <col min="4" max="1024" width="8.5703125" style="1"/>
   </cols>
